--- a/WagnerWhiten_Test_Data_Seasonality.xlsx
+++ b/WagnerWhiten_Test_Data_Seasonality.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iljohnson\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714C3C5-7C0F-4DFB-AEC3-C782DE7F497A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDC737A-A836-4E2C-98CB-3A947C332EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="480" windowWidth="14475" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="330" windowWidth="14475" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Headers</t>
   </si>
@@ -522,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:M17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,4 +945,203 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F0C4E1-57D8-4818-B8CB-2FAB30995420}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>200</v>
+      </c>
+      <c r="C8" s="2">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>500</v>
+      </c>
+      <c r="E10" s="2">
+        <v>500</v>
+      </c>
+      <c r="F10" s="2">
+        <v>500</v>
+      </c>
+      <c r="G10" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>